--- a/inst/extdata/tma1/tma1_clean_map.xlsx
+++ b/inst/extdata/tma1/tma1_clean_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahokada/Documents/TMAtools/inst/extdata/tma1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F61349F-5B93-EA40-BC5B-EE8C19A5D779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E0B804-9AB9-3F4D-AD1B-CD68F636C50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inst/extdata/tma1/tma1_clean_map.xlsx
+++ b/inst/extdata/tma1/tma1_clean_map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahokada/Documents/TMAtools/inst/extdata/tma1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E0B804-9AB9-3F4D-AD1B-CD68F636C50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1D6525-3960-1A44-932D-F9D0710684AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -356,15 +356,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:L8"/>
+  <dimension ref="C2:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C2">
         <v>1</v>
       </c>
@@ -372,42 +372,51 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
       <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="M2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="J2">
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="K2">
-        <v>4</v>
-      </c>
-      <c r="L2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
       <c r="F3">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K3">
         <v>8</v>
@@ -415,39 +424,71 @@
       <c r="L3">
         <v>8</v>
       </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>11</v>
       </c>
       <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>15</v>
+      </c>
+      <c r="L7">
+        <v>16</v>
+      </c>
+      <c r="M7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C8">
         <v>13</v>
       </c>
-      <c r="J7">
-        <v>13</v>
-      </c>
-      <c r="K7">
-        <v>14</v>
-      </c>
-      <c r="L7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C8">
-        <v>11</v>
-      </c>
       <c r="D8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>12</v>
@@ -455,17 +496,34 @@
       <c r="F8">
         <v>12</v>
       </c>
-      <c r="I8">
-        <v>15</v>
-      </c>
-      <c r="J8">
-        <v>15</v>
+      <c r="G8">
+        <v>11</v>
       </c>
       <c r="K8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L8">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="M8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/tma1/tma1_clean_map.xlsx
+++ b/inst/extdata/tma1/tma1_clean_map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahokada/Documents/TMAtools/inst/extdata/tma1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1D6525-3960-1A44-932D-F9D0710684AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D25A203-7CCE-7443-98E0-695592400357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1780" yWindow="3700" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TMA map" sheetId="1" r:id="rId1"/>
@@ -358,8 +358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
